--- a/Bon_S_Groupe_Date.xlsx
+++ b/Bon_S_Groupe_Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.DESKTOP-UI81QOM\Desktop\_EXPE_REMI_LAFITTE_300421\eprime_vv_lm_290421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B3FD9-A015-49FE-8AB1-3C9A12E1084B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BDD267-2654-49BE-851C-4D670B99BCE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{D54FA09D-D06B-4A33-89D8-A700F3FE11D9}"/>
   </bookViews>
@@ -25,44 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>Date2</t>
   </si>
   <si>
-    <t>Cond1</t>
-  </si>
-  <si>
-    <t>Cond2</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>11h</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>15h</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -75,12 +51,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Date1</t>
-  </si>
-  <si>
-    <t>NUM</t>
-  </si>
-  <si>
     <t>BGR101</t>
   </si>
   <si>
@@ -94,13 +64,184 @@
   </si>
   <si>
     <t>BGR105</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Année étude</t>
+  </si>
+  <si>
+    <t>N°étudiant</t>
+  </si>
+  <si>
+    <t>N° bon expé</t>
+  </si>
+  <si>
+    <t>Nb de point</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Expérimentateur</t>
+  </si>
+  <si>
+    <t>Responsable étude</t>
+  </si>
+  <si>
+    <t>BGR106</t>
+  </si>
+  <si>
+    <t>BGR107</t>
+  </si>
+  <si>
+    <t>BGR108</t>
+  </si>
+  <si>
+    <t>Rémi Lafitte</t>
+  </si>
+  <si>
+    <t>Dominic Pérennou</t>
+  </si>
+  <si>
+    <t>Cond_Prisme</t>
+  </si>
+  <si>
+    <t>Perraut</t>
+  </si>
+  <si>
+    <t>Hélène</t>
+  </si>
+  <si>
+    <t>Cambon</t>
+  </si>
+  <si>
+    <t>Margot</t>
+  </si>
+  <si>
+    <t>Peysson</t>
+  </si>
+  <si>
+    <t>Amélie</t>
+  </si>
+  <si>
+    <t>Le Bellour</t>
+  </si>
+  <si>
+    <t>Arman</t>
+  </si>
+  <si>
+    <t>Velasco</t>
+  </si>
+  <si>
+    <t>Amaury</t>
+  </si>
+  <si>
+    <t>Khattabi</t>
+  </si>
+  <si>
+    <t>Jad</t>
+  </si>
+  <si>
+    <t>Gautier</t>
+  </si>
+  <si>
+    <t>Axelle</t>
+  </si>
+  <si>
+    <t>BGR1</t>
+  </si>
+  <si>
+    <t>BGR2</t>
+  </si>
+  <si>
+    <t>BGR3</t>
+  </si>
+  <si>
+    <t>BGR4</t>
+  </si>
+  <si>
+    <t>BGR5</t>
+  </si>
+  <si>
+    <t>BGR7</t>
+  </si>
+  <si>
+    <t>MAIL CODE</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>BGR6a</t>
+  </si>
+  <si>
+    <t>BGR6b</t>
+  </si>
+  <si>
+    <t>Jihane</t>
+  </si>
+  <si>
+    <t>Feppon</t>
+  </si>
+  <si>
+    <t>Leander</t>
+  </si>
+  <si>
+    <t>Sayeg</t>
+  </si>
+  <si>
+    <t>Lilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandoval </t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Wamser</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Bahij</t>
+  </si>
+  <si>
+    <t>Boufenger</t>
+  </si>
+  <si>
+    <t>Zakia</t>
+  </si>
+  <si>
+    <t>Lessard</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Gomes</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Nom expé</t>
+  </si>
+  <si>
+    <t>Perception spatiale ou Orientation spatiale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +249,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,11 +285,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +313,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,194 +653,713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD64C3B-99C8-4BEB-8140-DCC9947F7FD8}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="10.90625" style="1"/>
-    <col min="6" max="6" width="10.90625" style="3"/>
-    <col min="7" max="10" width="10.90625" style="1"/>
-    <col min="12" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="36.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.90625" style="1"/>
+    <col min="9" max="9" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" style="3"/>
+    <col min="12" max="12" width="10.90625" style="1"/>
+    <col min="13" max="13" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>11900002</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44286</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>11911553</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>44286</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11802424</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>44286</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3">
+        <v>11905552</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>44287</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12007801</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>44288</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3">
+        <v>12017014</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>44288</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="3">
+        <v>12017014</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>44288</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12013051</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>44288</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11916873</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44313</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44320</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11622435</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>44314</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="3">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>44327</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11916485</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>44315</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11814666</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>44316</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="3">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12012974</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44316</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="3">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11818127</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>44316</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="3">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11608101</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>44316</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="3">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>44319</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K18" s="1"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C20" s="3"/>
+      <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>11916873</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44313</v>
-      </c>
-      <c r="F2" s="3">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>44320</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11622435</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44314</v>
-      </c>
-      <c r="F3" s="3">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>44327</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>11916485</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44315</v>
-      </c>
-      <c r="F4" s="3">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>11814666</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44316</v>
-      </c>
-      <c r="F5" s="3">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12012974</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44316</v>
-      </c>
-      <c r="F6" s="3">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C21" s="3"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C22" s="3"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C23" s="3"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C24" s="3"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C26" s="3"/>
+      <c r="K26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bon_S_Groupe_Date.xlsx
+++ b/Bon_S_Groupe_Date.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.DESKTOP-UI81QOM\Desktop\_EXPE_REMI_LAFITTE_300421\eprime_vv_lm_290421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.DESKTOP-UI81QOM\Desktop\_EXPE_REMI_LAFITTE_060521\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BDD267-2654-49BE-851C-4D670B99BCE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBFE4BE-03F2-4527-BBBE-88380EC721F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{D54FA09D-D06B-4A33-89D8-A700F3FE11D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>Date2</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Rémi Lafitte</t>
   </si>
   <si>
-    <t>Dominic Pérennou</t>
-  </si>
-  <si>
     <t>Cond_Prisme</t>
   </si>
   <si>
@@ -235,6 +232,12 @@
   </si>
   <si>
     <t>Perception spatiale ou Orientation spatiale</t>
+  </si>
+  <si>
+    <t>Dominic Pérennou/Eve Dupierrix</t>
+  </si>
+  <si>
+    <t>L1?</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,13 +333,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -653,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD64C3B-99C8-4BEB-8140-DCC9947F7FD8}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,16 +673,18 @@
     <col min="1" max="1" width="36.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="10.90625" style="1"/>
     <col min="9" max="9" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" style="3"/>
-    <col min="12" max="12" width="10.90625" style="1"/>
-    <col min="13" max="13" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.90625" style="1"/>
+    <col min="10" max="10" width="28.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="28.36328125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="28.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" style="3"/>
+    <col min="16" max="16" width="10.90625" style="1"/>
+    <col min="17" max="17" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -702,28 +713,32 @@
       <c r="J1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -732,7 +747,7 @@
         <v>11900002</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -744,21 +759,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="2"/>
+      <c r="R2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -767,7 +786,7 @@
         <v>11911553</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -779,21 +798,25 @@
         <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="2"/>
+      <c r="R3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -802,7 +825,7 @@
         <v>11802424</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -814,28 +837,34 @@
         <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="2"/>
+      <c r="R4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="3">
         <v>11905552</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -847,21 +876,25 @@
         <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="2"/>
+      <c r="R5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -870,7 +903,7 @@
         <v>12007801</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -882,28 +915,34 @@
         <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="2"/>
+      <c r="R6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E7" s="3">
         <v>12017014</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -915,28 +954,34 @@
         <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="2"/>
+      <c r="R7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E8" s="3">
         <v>12017014</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1">
         <v>0.5</v>
@@ -948,21 +993,25 @@
         <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="2"/>
+      <c r="R8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -971,7 +1020,7 @@
         <v>12013051</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -983,21 +1032,25 @@
         <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="2"/>
+      <c r="R9" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -1018,30 +1071,34 @@
         <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="3">
+        <v>69</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3">
         <v>19</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="P10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <v>44320</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -1062,30 +1119,34 @@
         <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="3">
-        <v>25</v>
-      </c>
-      <c r="L11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="Q11" s="2">
         <v>44327</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R11" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -1106,27 +1167,31 @@
         <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="3">
+        <v>69</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3">
         <v>19</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -1147,27 +1212,31 @@
         <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="3">
+        <v>69</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3">
         <v>21</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -1188,27 +1257,31 @@
         <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="3">
+        <v>69</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3">
         <v>18</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -1229,27 +1302,31 @@
         <v>25</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="3">
+        <v>69</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3">
         <v>24</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -1270,32 +1347,38 @@
         <v>25</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="3">
+        <v>69</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3">
         <v>22</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17">
+        <v>11711904</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1309,57 +1392,66 @@
         <v>25</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K18" s="1"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3">
+        <v>23</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O18" s="1"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
-      <c r="K19" s="1"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
       <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C21" s="3"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C22" s="3"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C23" s="3"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C24" s="3"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C26" s="3"/>
-      <c r="K26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
